--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3674,54 +3674,54 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D79" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>6</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>7</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G107" s="2" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G108" s="2" t="b">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8146,366 +8146,366 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>2</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>15</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3674,54 +3674,54 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>5</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>5</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>4</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>6</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>5</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>7</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>5</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>8</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>5</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>9</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G107" s="2" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G108" s="2" t="b">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8146,366 +8146,366 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>10</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" s="2" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>2</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" s="2" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>10</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>3</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" s="2" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>10</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>4</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" t="n">
         <v>10</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" t="n">
         <v>5</v>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" s="2" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>10</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>15</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>0</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>15</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>15</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>2</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>15</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
